--- a/Funerária/BP.xlsx
+++ b/Funerária/BP.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d374f7659aebf036/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="14_{3687ADE8-7A8A-4C8E-AF3F-B777D32EE6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44E348C9-62D0-4A47-9FF8-2B015B171234}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="14_{3687ADE8-7A8A-4C8E-AF3F-B777D32EE6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7895981-7265-40E6-8E71-BEF5A9F7D60B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1209,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H674"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F136" sqref="F136"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,7 +1548,7 @@
         <v>367</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="8">
